--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H2">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I2">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J2">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N2">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O2">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P2">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q2">
-        <v>0.6623674341262222</v>
+        <v>0.7940404157652222</v>
       </c>
       <c r="R2">
-        <v>5.961306907136</v>
+        <v>7.146363741887</v>
       </c>
       <c r="S2">
-        <v>0.03399269501849156</v>
+        <v>0.03266039280996711</v>
       </c>
       <c r="T2">
-        <v>0.03399269501849157</v>
+        <v>0.03266039280996711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H3">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I3">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J3">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>29.178763</v>
       </c>
       <c r="N3">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O3">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P3">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q3">
-        <v>8.293149114842667</v>
+        <v>3.797042155444333</v>
       </c>
       <c r="R3">
-        <v>74.638342033584</v>
+        <v>34.173379398999</v>
       </c>
       <c r="S3">
-        <v>0.4256043912780882</v>
+        <v>0.1561795669976119</v>
       </c>
       <c r="T3">
-        <v>0.4256043912780883</v>
+        <v>0.1561795669976119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -667,46 +667,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H4">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I4">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J4">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N4">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O4">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P4">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q4">
-        <v>0.1119222792675556</v>
+        <v>0.01908283260133333</v>
       </c>
       <c r="R4">
-        <v>1.007300513408</v>
+        <v>0.171745493412</v>
       </c>
       <c r="S4">
-        <v>0.005743851084610321</v>
+        <v>0.0007849132063205626</v>
       </c>
       <c r="T4">
-        <v>0.005743851084610323</v>
+        <v>0.0007849132063205627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H5">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I5">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J5">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N5">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O5">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P5">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q5">
-        <v>6.160626805361778</v>
+        <v>1.954928434739889</v>
       </c>
       <c r="R5">
-        <v>55.445641248256</v>
+        <v>17.594355912659</v>
       </c>
       <c r="S5">
-        <v>0.3161633518315455</v>
+        <v>0.08040992539711905</v>
       </c>
       <c r="T5">
-        <v>0.3161633518315456</v>
+        <v>0.08040992539711907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H6">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I6">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J6">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N6">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q6">
-        <v>2.770863887057778</v>
+        <v>0.6882464067202222</v>
       </c>
       <c r="R6">
-        <v>24.93777498352</v>
+        <v>6.194217660482</v>
       </c>
       <c r="S6">
-        <v>0.1422007275686174</v>
+        <v>0.02830888396514207</v>
       </c>
       <c r="T6">
-        <v>0.1422007275686175</v>
+        <v>0.02830888396514207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2842186666666667</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H7">
-        <v>0.852656</v>
+        <v>0.390391</v>
       </c>
       <c r="I7">
-        <v>0.9298746507473624</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="J7">
-        <v>0.9298746507473625</v>
+        <v>0.2986126887311651</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N7">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O7">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P7">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q7">
-        <v>0.1202189063662222</v>
+        <v>0.006540090292666665</v>
       </c>
       <c r="R7">
-        <v>1.081970157296</v>
+        <v>0.058860812634</v>
       </c>
       <c r="S7">
-        <v>0.006169633966009325</v>
+        <v>0.0002690063550043563</v>
       </c>
       <c r="T7">
-        <v>0.006169633966009326</v>
+        <v>0.0002690063550043563</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H8">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I8">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J8">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N8">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O8">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P8">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q8">
-        <v>0.04995162263466666</v>
+        <v>1.734269808332445</v>
       </c>
       <c r="R8">
-        <v>0.449564603712</v>
+        <v>15.608428274992</v>
       </c>
       <c r="S8">
-        <v>0.00256351714534237</v>
+        <v>0.07133381633228052</v>
       </c>
       <c r="T8">
-        <v>0.002563517145342371</v>
+        <v>0.07133381633228049</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H9">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I9">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J9">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>29.178763</v>
       </c>
       <c r="N9">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O9">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P9">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q9">
-        <v>0.6254176061419999</v>
+        <v>8.293149114842668</v>
       </c>
       <c r="R9">
-        <v>5.628758455278</v>
+        <v>74.63834203358401</v>
       </c>
       <c r="S9">
-        <v>0.03209642994122321</v>
+        <v>0.3411129992185163</v>
       </c>
       <c r="T9">
-        <v>0.03209642994122323</v>
+        <v>0.3411129992185162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1039,46 +1039,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H10">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I10">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J10">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N10">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O10">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P10">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q10">
-        <v>0.008440480570666665</v>
+        <v>0.04167896215466667</v>
       </c>
       <c r="R10">
-        <v>0.075964325136</v>
+        <v>0.375110659392</v>
       </c>
       <c r="S10">
-        <v>0.0004331654412126494</v>
+        <v>0.001714334999650263</v>
       </c>
       <c r="T10">
-        <v>0.0004331654412126495</v>
+        <v>0.001714334999650263</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1086,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H11">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I11">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J11">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N11">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O11">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P11">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q11">
-        <v>0.4645960678613333</v>
+        <v>4.269774301793777</v>
       </c>
       <c r="R11">
-        <v>4.181364610752</v>
+        <v>38.42796871614399</v>
       </c>
       <c r="S11">
-        <v>0.02384306900962644</v>
+        <v>0.1756239394591729</v>
       </c>
       <c r="T11">
-        <v>0.02384306900962644</v>
+        <v>0.1756239394591729</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.021434</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H12">
-        <v>0.064302</v>
+        <v>0.852656</v>
       </c>
       <c r="I12">
-        <v>0.07012534925263751</v>
+        <v>0.6522022811047395</v>
       </c>
       <c r="J12">
-        <v>0.07012534925263753</v>
+        <v>0.6522022811047393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N12">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q12">
-        <v>0.2089612805933333</v>
+        <v>1.503204295612445</v>
       </c>
       <c r="R12">
-        <v>1.88065152534</v>
+        <v>13.528838660512</v>
       </c>
       <c r="S12">
-        <v>0.01072389238346676</v>
+        <v>0.06182965223630203</v>
       </c>
       <c r="T12">
-        <v>0.01072389238346677</v>
+        <v>0.06182965223630201</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,46 +1225,418 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.852656</v>
+      </c>
+      <c r="I13">
+        <v>0.6522022811047395</v>
+      </c>
+      <c r="J13">
+        <v>0.6522022811047393</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.050258</v>
+      </c>
+      <c r="N13">
+        <v>0.150774</v>
+      </c>
+      <c r="O13">
+        <v>0.0009008537317934847</v>
+      </c>
+      <c r="P13">
+        <v>0.0009008537317934848</v>
+      </c>
+      <c r="Q13">
+        <v>0.01428426174933333</v>
+      </c>
+      <c r="R13">
+        <v>0.128558355744</v>
+      </c>
+      <c r="S13">
+        <v>0.000587538858817428</v>
+      </c>
+      <c r="T13">
+        <v>0.0005875388588174278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
         <v>0.021434</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>0.064302</v>
       </c>
-      <c r="I13">
-        <v>0.07012534925263751</v>
-      </c>
-      <c r="J13">
-        <v>0.07012534925263753</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.4229803333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.268941</v>
-      </c>
-      <c r="O13">
-        <v>0.006634909297775397</v>
-      </c>
-      <c r="P13">
-        <v>0.006634909297775398</v>
-      </c>
-      <c r="Q13">
-        <v>0.009066160464666665</v>
-      </c>
-      <c r="R13">
-        <v>0.08159544418199999</v>
-      </c>
-      <c r="S13">
-        <v>0.0004652753317660716</v>
-      </c>
-      <c r="T13">
-        <v>0.0004652753317660718</v>
+      <c r="I14">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J14">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.101885666666667</v>
+      </c>
+      <c r="N14">
+        <v>18.305657</v>
+      </c>
+      <c r="O14">
+        <v>0.1093737608697887</v>
+      </c>
+      <c r="P14">
+        <v>0.1093737608697887</v>
+      </c>
+      <c r="Q14">
+        <v>0.1307878173793333</v>
+      </c>
+      <c r="R14">
+        <v>1.177090356414</v>
+      </c>
+      <c r="S14">
+        <v>0.00537955172754112</v>
+      </c>
+      <c r="T14">
+        <v>0.00537955172754112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.021434</v>
+      </c>
+      <c r="H15">
+        <v>0.064302</v>
+      </c>
+      <c r="I15">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J15">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>29.178763</v>
+      </c>
+      <c r="N15">
+        <v>87.53628900000001</v>
+      </c>
+      <c r="O15">
+        <v>0.5230171820937495</v>
+      </c>
+      <c r="P15">
+        <v>0.5230171820937495</v>
+      </c>
+      <c r="Q15">
+        <v>0.625417606142</v>
+      </c>
+      <c r="R15">
+        <v>5.628758455278001</v>
+      </c>
+      <c r="S15">
+        <v>0.02572461587762126</v>
+      </c>
+      <c r="T15">
+        <v>0.02572461587762126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.021434</v>
+      </c>
+      <c r="H16">
+        <v>0.064302</v>
+      </c>
+      <c r="I16">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J16">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.146644</v>
+      </c>
+      <c r="N16">
+        <v>0.439932</v>
+      </c>
+      <c r="O16">
+        <v>0.002628532664354407</v>
+      </c>
+      <c r="P16">
+        <v>0.002628532664354407</v>
+      </c>
+      <c r="Q16">
+        <v>0.003143167496</v>
+      </c>
+      <c r="R16">
+        <v>0.028288507464</v>
+      </c>
+      <c r="S16">
+        <v>0.0001292844583835816</v>
+      </c>
+      <c r="T16">
+        <v>0.0001292844583835817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.021434</v>
+      </c>
+      <c r="H17">
+        <v>0.064302</v>
+      </c>
+      <c r="I17">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J17">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.02284966666667</v>
+      </c>
+      <c r="N17">
+        <v>45.068549</v>
+      </c>
+      <c r="O17">
+        <v>0.2692783275177917</v>
+      </c>
+      <c r="P17">
+        <v>0.2692783275177917</v>
+      </c>
+      <c r="Q17">
+        <v>0.3219997597553333</v>
+      </c>
+      <c r="R17">
+        <v>2.897997837798</v>
+      </c>
+      <c r="S17">
+        <v>0.01324446266149975</v>
+      </c>
+      <c r="T17">
+        <v>0.01324446266149975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.021434</v>
+      </c>
+      <c r="H18">
+        <v>0.064302</v>
+      </c>
+      <c r="I18">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J18">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.288900666666667</v>
+      </c>
+      <c r="N18">
+        <v>15.866702</v>
+      </c>
+      <c r="O18">
+        <v>0.09480134312252211</v>
+      </c>
+      <c r="P18">
+        <v>0.09480134312252211</v>
+      </c>
+      <c r="Q18">
+        <v>0.1133622968893333</v>
+      </c>
+      <c r="R18">
+        <v>1.020260672004</v>
+      </c>
+      <c r="S18">
+        <v>0.004662806921078011</v>
+      </c>
+      <c r="T18">
+        <v>0.004662806921078011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.021434</v>
+      </c>
+      <c r="H19">
+        <v>0.064302</v>
+      </c>
+      <c r="I19">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="J19">
+        <v>0.04918503016409543</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.050258</v>
+      </c>
+      <c r="N19">
+        <v>0.150774</v>
+      </c>
+      <c r="O19">
+        <v>0.0009008537317934847</v>
+      </c>
+      <c r="P19">
+        <v>0.0009008537317934848</v>
+      </c>
+      <c r="Q19">
+        <v>0.001077229972</v>
+      </c>
+      <c r="R19">
+        <v>0.009695069747999999</v>
+      </c>
+      <c r="S19">
+        <v>4.430851797170048E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.430851797170049E-05</v>
       </c>
     </row>
   </sheetData>
